--- a/[Data] WES_PASS/Patient-42-indels.xlsx
+++ b/[Data] WES_PASS/Patient-42-indels.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="471">
   <si>
     <t>NG.8132_42B_lib74078_3782_1</t>
   </si>
@@ -43,880 +43,1390 @@
     <t>GBM driver</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>chr1_16969752</t>
   </si>
   <si>
+    <t>TARS2 intron_variant&amp;NMD_transcript_variant:TARS2 intron_variant&amp;non_coding_transcript_variant:TARS2 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_150464268   </t>
+  </si>
+  <si>
+    <t>chr1_20809956</t>
+  </si>
+  <si>
+    <t>HNMT intron_variant&amp;NMD_transcript_variant:HNMT intron_variant:HNMT intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_138727872   </t>
+  </si>
+  <si>
+    <t>chr1_25679278</t>
+  </si>
+  <si>
+    <t>TTN missense_variant&amp;splice_region_variant:TTN-AS1 intron_variant&amp;non_coding_transcript_variant:TTN intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_179530187   </t>
+  </si>
+  <si>
+    <t>chr1_25679289</t>
+  </si>
+  <si>
+    <t>CASP8 intron_variant:CASP8 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_202146409   </t>
+  </si>
+  <si>
+    <t>CASP8:CASP8</t>
+  </si>
+  <si>
+    <t>intron_variant:intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t>chr1_40798960</t>
+  </si>
+  <si>
+    <t>ZNF595 intron_variant&amp;non_coding_transcript_variant:ZNF595 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_60570   </t>
+  </si>
+  <si>
+    <t>chr1_40799145</t>
+  </si>
+  <si>
+    <t>IPO11 intron_variant:IPO11 intron_variant&amp;NMD_transcript_variant:KIF2A intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_61738690   </t>
+  </si>
+  <si>
+    <t>chr1_40799163</t>
+  </si>
+  <si>
+    <t>TCERG1 intron_variant&amp;non_coding_transcript_variant:TCERG1 intron_variant:TCERG1 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_145888687   </t>
+  </si>
+  <si>
+    <t>chr1_40799181</t>
+  </si>
+  <si>
+    <t>FAM153B missense_variant:FAM153B missense_variant&amp;NMD_transcript_variant:FAM153B non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_175533585   </t>
+  </si>
+  <si>
+    <t>chr1_40799183</t>
+  </si>
+  <si>
+    <t>RP11-103C16.2 intron_variant&amp;non_coding_transcript_variant:PTPRK intron_variant&amp;non_coding_transcript_variant:PTPRK intron_variant:PTPRK intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_128388566   </t>
+  </si>
+  <si>
+    <t>PTPRK:PTPRK:PTPRK</t>
+  </si>
+  <si>
+    <t>intron_variant&amp;non_coding_transcript_variant:intron_variant:intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t>chr1_40799196</t>
+  </si>
+  <si>
+    <t>AC004906.3 intron_variant&amp;non_coding_transcript_variant:CARD11 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_2985361   </t>
+  </si>
+  <si>
+    <t>CARD11</t>
+  </si>
+  <si>
+    <t>intron_variant</t>
+  </si>
+  <si>
+    <t>chr1_44058315</t>
+  </si>
+  <si>
+    <t>GBAS intron_variant&amp;NMD_transcript_variant:GBAS intron_variant&amp;non_coding_transcript_variant:GBAS intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_56059458   </t>
+  </si>
+  <si>
+    <t>chr1_47015453</t>
+  </si>
+  <si>
+    <t>COL26A1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_101192442   </t>
+  </si>
+  <si>
+    <t>chr1_89298290</t>
+  </si>
+  <si>
+    <t>CBWD5 intron_variant&amp;NMD_transcript_variant:CBWD5 intron_variant&amp;non_coding_transcript_variant:CBWD5 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_70484619   </t>
+  </si>
+  <si>
+    <t>chr1_112320978</t>
+  </si>
+  <si>
+    <t>WT1 intron_variant&amp;NMD_transcript_variant:WT1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_32451995   </t>
+  </si>
+  <si>
+    <t>WT1:WT1</t>
+  </si>
+  <si>
+    <t>intron_variant&amp;NMD_transcript_variant:intron_variant</t>
+  </si>
+  <si>
+    <t>chr1_150464268</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>chr1_20809956</t>
-  </si>
-  <si>
-    <t>CAMK2N1</t>
-  </si>
-  <si>
-    <t>chr1_25679278</t>
-  </si>
-  <si>
-    <t>TMEM50A</t>
-  </si>
-  <si>
-    <t>chr1_25679289</t>
-  </si>
-  <si>
-    <t>chr1_40798960</t>
-  </si>
-  <si>
-    <t>RP1-228H13.1</t>
-  </si>
-  <si>
-    <t>chr1_40799145</t>
-  </si>
-  <si>
-    <t>chr1_40799163</t>
-  </si>
-  <si>
-    <t>chr1_40799181</t>
-  </si>
-  <si>
-    <t>chr1_40799183</t>
-  </si>
-  <si>
-    <t>chr1_40799196</t>
-  </si>
-  <si>
-    <t>chr1_44058315</t>
-  </si>
-  <si>
-    <t>PTPRF</t>
-  </si>
-  <si>
-    <t>chr1_47015453</t>
-  </si>
-  <si>
-    <t>KNCN:MKNK1-AS1</t>
-  </si>
-  <si>
-    <t>chr1_89298290</t>
-  </si>
-  <si>
-    <t>PKN2</t>
-  </si>
-  <si>
-    <t>chr1_112320978</t>
-  </si>
-  <si>
-    <t>KCND3</t>
-  </si>
-  <si>
-    <t>chr1_150464268</t>
-  </si>
-  <si>
-    <t>TARS2</t>
+    <t xml:space="preserve">chr15_20867597   </t>
   </si>
   <si>
     <t>chr1_154294464</t>
   </si>
   <si>
-    <t>AQP10</t>
+    <t>TRPM7 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_50882045   </t>
   </si>
   <si>
     <t>chr1_154842330</t>
   </si>
   <si>
+    <t>HIGD2B intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_72968748   </t>
+  </si>
+  <si>
     <t>chr1_181700483</t>
   </si>
   <si>
-    <t>CACNA1E</t>
+    <t>LIG3 intron_variant:LIG3 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_33318204   </t>
   </si>
   <si>
     <t>chr1_203198889</t>
   </si>
   <si>
-    <t>CHIT1</t>
+    <t>BAGE2 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr21_11049848   </t>
   </si>
   <si>
     <t>chr2_42553086</t>
   </si>
   <si>
-    <t>EML4</t>
+    <t xml:space="preserve"> intergenic_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrX_54868436   </t>
   </si>
   <si>
     <t>chr2_44566504</t>
   </si>
   <si>
-    <t>PREPL</t>
+    <t xml:space="preserve">chr1_143767878   </t>
   </si>
   <si>
     <t>chr2_62729979</t>
   </si>
   <si>
-    <t>TMEM17</t>
+    <t>UTP20 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_101761904   </t>
   </si>
   <si>
     <t>chr2_65893962</t>
   </si>
   <si>
-    <t>AC074391.1:KRT18P33</t>
+    <t xml:space="preserve">chr14_106229649   </t>
   </si>
   <si>
     <t>chr2_99185276</t>
   </si>
   <si>
-    <t>INPP4A</t>
+    <t xml:space="preserve">chr17_30462698   </t>
   </si>
   <si>
     <t>chr2_112621498</t>
   </si>
   <si>
-    <t>ANAPC1</t>
+    <t>ZNF519 intron_variant&amp;NMD_transcript_variant:ZNF519 intron_variant&amp;non_coding_transcript_variant:ZNF519 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:ZNF519 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr18_14124235   </t>
   </si>
   <si>
     <t>chr2_116535069</t>
   </si>
   <si>
-    <t>DPP10</t>
+    <t>INSR splice_region_variant&amp;intron_variant:INSR splice_region_variant&amp;intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_7184651   </t>
   </si>
   <si>
     <t>chr2_119750595</t>
   </si>
   <si>
-    <t>MARCO</t>
+    <t>USP25 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr21_17236804   </t>
   </si>
   <si>
     <t>chr2_138727872</t>
   </si>
   <si>
-    <t>HNMT</t>
+    <t>PCDH11Y intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrY_5502555   </t>
   </si>
   <si>
     <t>chr2_152547485</t>
   </si>
   <si>
-    <t>NEB</t>
+    <t>COL9A3 intron_variant&amp;non_coding_transcript_variant:COL9A3 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr20_61455634   </t>
   </si>
   <si>
     <t>chr2_160998367</t>
   </si>
   <si>
-    <t>ITGB6</t>
+    <t>PTPRF intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_44058315   </t>
   </si>
   <si>
     <t>chr2_170504696</t>
   </si>
   <si>
+    <t xml:space="preserve">chr4_67547   </t>
+  </si>
+  <si>
     <t>chr2_176804220</t>
   </si>
   <si>
-    <t>KIAA1715</t>
+    <t>CALCOCO1 intron_variant&amp;non_coding_transcript_variant:CALCOCO1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_54108600   </t>
   </si>
   <si>
     <t>chr2_179481470</t>
   </si>
   <si>
-    <t>TTN-AS1:TTN:RP11-171I2.4</t>
+    <t>RSU1 intron_variant:RSU1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr10_16824096   </t>
   </si>
   <si>
     <t>chr2_190575939</t>
   </si>
   <si>
-    <t>ANKAR</t>
+    <t>DOPEY2 intron_variant:DOPEY2 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr21_37571740   </t>
   </si>
   <si>
     <t>chr2_191155233</t>
   </si>
   <si>
-    <t>HIBCH</t>
+    <t xml:space="preserve">chr1_16862186   </t>
   </si>
   <si>
     <t>chr2_202146409</t>
   </si>
   <si>
-    <t>CASP8</t>
+    <t>SMAP1 frameshift_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_71508369   </t>
   </si>
   <si>
     <t>chr2_208447634</t>
   </si>
   <si>
-    <t>CREB1:METTL21A</t>
+    <t>HSF2 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_122733496   </t>
   </si>
   <si>
     <t>chr3_20141251</t>
   </si>
   <si>
-    <t>KAT2B</t>
+    <t>PDE2A intron_variant:PDE2A intron_variant&amp;NMD_transcript_variant:RP11-31L22.3 intron_variant&amp;non_coding_transcript_variant:PDE2A intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_72361970   </t>
   </si>
   <si>
     <t>chr3_150336475</t>
   </si>
   <si>
-    <t>SELT</t>
+    <t>GCK intron_variant:GCK intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_44214437   </t>
   </si>
   <si>
     <t>chr3_153420561</t>
   </si>
   <si>
+    <t xml:space="preserve">chr20_61455638   </t>
+  </si>
+  <si>
     <t>chr3_183679574</t>
   </si>
   <si>
-    <t>ABCC5</t>
+    <t>TMEM17 intron_variant:TMEM17 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_62729979   </t>
   </si>
   <si>
     <t>chr3_185337427</t>
   </si>
   <si>
-    <t>SENP2</t>
+    <t>AC074391.1 intron_variant&amp;non_coding_transcript_variant:KRT18P33 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_65893962   </t>
   </si>
   <si>
     <t>chr3_186607593</t>
   </si>
   <si>
+    <t xml:space="preserve">chr3_197846843   </t>
+  </si>
+  <si>
     <t>chr4_70172508</t>
   </si>
   <si>
-    <t>RP11-618I10.4</t>
+    <t>NAMPTL intron_variant:NAMPTL 3_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr10_36811706   </t>
   </si>
   <si>
     <t>chr4_79792082</t>
   </si>
   <si>
-    <t>BMP2K</t>
+    <t>EML4 intron_variant:EML4 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_42553086   </t>
+  </si>
+  <si>
+    <t>EML4:EML4</t>
   </si>
   <si>
     <t>chr4_86938317</t>
   </si>
   <si>
-    <t>MAPK10</t>
+    <t>GUSBP1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_21491760   </t>
   </si>
   <si>
     <t>chr4_96073753</t>
   </si>
   <si>
-    <t>BMPR1B</t>
+    <t>DHX40 3_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_57685253   </t>
   </si>
   <si>
     <t>chr4_106193653</t>
   </si>
   <si>
-    <t>TET2</t>
+    <t>MAPK10 3_prime_UTR_variant:MAPK10 3_prime_UTR_variant&amp;NMD_transcript_variant:MAPK10 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_86938317   </t>
   </si>
   <si>
     <t>chr4_107288114</t>
   </si>
   <si>
-    <t>GIMD1</t>
+    <t>PRIM2 intron_variant&amp;non_coding_transcript_variant:PRIM2 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_57472212   </t>
   </si>
   <si>
     <t>chr4_114119995</t>
   </si>
   <si>
-    <t>ANK2</t>
+    <t>SEMA3A intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_83606595   </t>
   </si>
   <si>
     <t>chr4_159161692</t>
   </si>
   <si>
-    <t>TMEM144</t>
+    <t xml:space="preserve">chr3_186607593   </t>
   </si>
   <si>
     <t>chr5_15616330</t>
   </si>
   <si>
-    <t>FBXL7</t>
+    <t>BMPR1B intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_96073753   </t>
   </si>
   <si>
     <t>chr5_61738690</t>
   </si>
   <si>
-    <t>IPO11:KIF2A</t>
+    <t>CREB1 intron_variant:METTL21A intron_variant:CREB1 intron_variant&amp;NMD_transcript_variant:CREB1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_208447634   </t>
+  </si>
+  <si>
+    <t>CREB1:CREB1:CREB1</t>
+  </si>
+  <si>
+    <t>intron_variant:intron_variant&amp;NMD_transcript_variant:intron_variant&amp;non_coding_transcript_variant</t>
   </si>
   <si>
     <t>chr5_68661710</t>
   </si>
   <si>
-    <t>TAF9</t>
+    <t>NBPF1 intron_variant&amp;NMD_transcript_variant:NBPF1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_16893071   </t>
   </si>
   <si>
     <t>chr5_145888687</t>
   </si>
   <si>
-    <t>TCERG1</t>
+    <t>NABP1 intron_variant:NABP1 intron_variant&amp;NMD_transcript_variant:NABP1 intron_variant&amp;non_coding_transcript_variant:NABP1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_192546796   </t>
   </si>
   <si>
     <t>chr5_170827311</t>
   </si>
   <si>
-    <t>NPM1</t>
+    <t>TSEN2 intron_variant:C3orf83 intron_variant&amp;non_coding_transcript_variant:TSEN2 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_12558181   </t>
   </si>
   <si>
     <t>chr5_175528350</t>
   </si>
   <si>
-    <t>FAM153B</t>
+    <t xml:space="preserve">chr3_52550031   </t>
   </si>
   <si>
     <t>chr6_7727522</t>
   </si>
   <si>
+    <t>SLIT2 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_20482159   </t>
+  </si>
+  <si>
     <t>chr6_57415420</t>
   </si>
   <si>
-    <t>PRIM2</t>
+    <t>ITGA1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:ITGA1 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_52216174   </t>
   </si>
   <si>
     <t>chr6_70866386</t>
   </si>
   <si>
-    <t>COL19A1</t>
+    <t>TAF9 intron_variant:TAF9 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_68661710   </t>
   </si>
   <si>
     <t>chr6_71508369</t>
   </si>
   <si>
-    <t>SMAP1</t>
+    <t xml:space="preserve">chr5_100147493   </t>
   </si>
   <si>
     <t>chr6_89614281</t>
   </si>
   <si>
-    <t>RNGTT</t>
+    <t>AQPEP non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:AQPEP 3_prime_UTR_variant&amp;NMD_transcript_variant:CTD-2287O16.3 intron_variant:AQPEP 3_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_115361827   </t>
   </si>
   <si>
     <t>chr6_122733496</t>
   </si>
   <si>
-    <t>HSF2</t>
+    <t>PITX1 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_134364968   </t>
   </si>
   <si>
     <t>chr6_128388566</t>
   </si>
   <si>
-    <t>RP11-103C16.2:PTPRK</t>
+    <t>PCDHA1 intron_variant:PCDHA5 intron_variant:PCDHA2 intron_variant:PCDHA4 intron_variant:PCDHA10 synonymous_variant:PCDHA8 intron_variant:PCDHA6 intron_variant:PCDHA3 intron_variant:PCDHA7 intron_variant:PCDHA9 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_140237197   </t>
   </si>
   <si>
     <t>chr6_137193320</t>
   </si>
   <si>
-    <t>PEX7</t>
+    <t xml:space="preserve">chr6_8412105   </t>
   </si>
   <si>
     <t>chr6_137193331</t>
   </si>
   <si>
+    <t>GPX5 intron_variant:GPX5 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_28499704   </t>
+  </si>
+  <si>
     <t>chr6_145021193</t>
   </si>
   <si>
-    <t>UTRN</t>
+    <t>DNAH8 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_38795911   </t>
   </si>
   <si>
     <t>chr7_2985361</t>
   </si>
   <si>
-    <t>AC004906.3:CARD11</t>
+    <t>SDK1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_4107660   </t>
   </si>
   <si>
     <t>chr7_7421365</t>
   </si>
   <si>
+    <t>AOAH intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_36713401   </t>
+  </si>
+  <si>
     <t>chr7_44214437</t>
   </si>
   <si>
-    <t>GCK</t>
+    <t>POT1 intron_variant:POT1 3_prime_UTR_variant&amp;NMD_transcript_variant:POT1 3_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_124463861   </t>
+  </si>
+  <si>
+    <t>POT1:POT1:POT1</t>
+  </si>
+  <si>
+    <t>intron_variant:3_prime_UTR_variant&amp;NMD_transcript_variant:3_prime_UTR_variant</t>
   </si>
   <si>
     <t>chr7_56059458</t>
   </si>
   <si>
-    <t>GBAS</t>
+    <t>SLC16A1P1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:RP4-669B10.3 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_143683188   </t>
   </si>
   <si>
     <t>chr7_77234109</t>
   </si>
   <si>
-    <t>PTPN12</t>
+    <t xml:space="preserve">chr8_66289902   </t>
   </si>
   <si>
     <t>chr7_83606595</t>
   </si>
   <si>
-    <t>SEMA3A</t>
+    <t xml:space="preserve">chr8_82606991   </t>
   </si>
   <si>
     <t>chr7_84670099</t>
   </si>
   <si>
-    <t>SEMA3D</t>
+    <t>YWHAZ missense_variant:YWHAZ 5_prime_UTR_variant:YWHAZ non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8_101937239   </t>
   </si>
   <si>
     <t>chr7_85795472</t>
   </si>
   <si>
+    <t>SHB missense_variant:RP11-613M10.9 missense_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_38068093   </t>
+  </si>
+  <si>
     <t>chr7_91956939</t>
   </si>
   <si>
-    <t>ANKIB1</t>
+    <t>TLE4 intron_variant:TLE4 intron_variant&amp;non_coding_transcript_variant:TLE4 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_82268914   </t>
   </si>
   <si>
     <t>chr7_126547334</t>
   </si>
   <si>
-    <t>GRM8</t>
+    <t>CNGA4 missense_variant:CNGA4 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_6261559   </t>
   </si>
   <si>
     <t>chr7_126547339</t>
   </si>
   <si>
+    <t>SWAP70 synonymous_variant:SWAP70 3_prime_UTR_variant&amp;NMD_transcript_variant:SWAP70 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_9754248   </t>
+  </si>
+  <si>
     <t>chr8_6679300</t>
   </si>
   <si>
-    <t>XKR5</t>
+    <t>WSCD2 intron_variant:WSCD2 5_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_108589596   </t>
   </si>
   <si>
     <t>chr8_21848179</t>
   </si>
   <si>
-    <t>XPO7</t>
+    <t>TMEM132B synonymous_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_126135481   </t>
   </si>
   <si>
     <t>chr8_26513312</t>
   </si>
   <si>
-    <t>DPYSL2</t>
+    <t>TMEM132D missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_129566491   </t>
   </si>
   <si>
     <t>chr8_37555933</t>
   </si>
   <si>
+    <t xml:space="preserve">chr14_106173569   </t>
+  </si>
+  <si>
     <t>chr8_141542261</t>
   </si>
   <si>
-    <t>AGO2</t>
+    <t>FOXN1 intron_variant:RP11-192H23.4 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_26856414   </t>
   </si>
   <si>
     <t>chr9_20740355</t>
   </si>
   <si>
-    <t>FOCAD</t>
+    <t>SUZ12 missense_variant:SUZ12 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_30321616   </t>
+  </si>
+  <si>
+    <t>SUZ12:SUZ12</t>
+  </si>
+  <si>
+    <t>missense_variant:non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
   </si>
   <si>
     <t>chr9_38068093</t>
   </si>
   <si>
-    <t>SHB:RP11-613M10.9</t>
+    <t xml:space="preserve">chr17_33520900   </t>
   </si>
   <si>
     <t>chr9_82268914</t>
   </si>
   <si>
-    <t>TLE4</t>
+    <t>PLAUR non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:PLAUR intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_44156358   </t>
   </si>
   <si>
     <t>chr9_103260966</t>
   </si>
   <si>
-    <t>TMEFF1:MSANTD3-TMEFF1</t>
+    <t>BCAT2 intron_variant&amp;non_coding_transcript_variant:BCAT2 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_49303201   </t>
   </si>
   <si>
     <t>chr9_127975852</t>
   </si>
   <si>
-    <t>RABEPK</t>
+    <t xml:space="preserve">chr20_21095426   </t>
   </si>
   <si>
     <t>chr10_16824096</t>
   </si>
   <si>
-    <t>RSU1</t>
+    <t xml:space="preserve">chr3_90271247   </t>
   </si>
   <si>
     <t>chr10_36811706</t>
   </si>
   <si>
-    <t>NAMPTL</t>
+    <t>SDHA non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:SDHA 3_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_256673   </t>
+  </si>
+  <si>
+    <t>SDHA:SDHA</t>
+  </si>
+  <si>
+    <t>non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:3_prime_UTR_variant</t>
   </si>
   <si>
     <t>chr10_69666142</t>
   </si>
   <si>
-    <t>SIRT1</t>
+    <t>SCIMP intron_variant:RP11-333E1.1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:RP11-333E1.1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_5126838   </t>
   </si>
   <si>
     <t>chr10_70139328</t>
   </si>
   <si>
-    <t>RUFY2</t>
+    <t>RP11-403I13.6 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:RP11-403I13.4 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_149262640   </t>
   </si>
   <si>
     <t>chr10_75564395</t>
   </si>
   <si>
-    <t>RP11-574K11.31:NDST2</t>
+    <t xml:space="preserve">chr3_109414   </t>
   </si>
   <si>
     <t>chr10_92676187</t>
   </si>
   <si>
+    <t xml:space="preserve">chr7_85795472   </t>
+  </si>
+  <si>
     <t>chr10_105048270</t>
   </si>
   <si>
+    <t>C19orf44 intron_variant:CTD-3222D19.2 intron_variant&amp;NMD_transcript_variant:C19orf44 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_16628259   </t>
+  </si>
+  <si>
     <t>chr11_32451995</t>
   </si>
   <si>
-    <t>WT1</t>
+    <t>RP1-228H13.1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_40798960   </t>
   </si>
   <si>
     <t>chr11_46678478</t>
   </si>
   <si>
-    <t>ATG13</t>
+    <t xml:space="preserve">chr1_40798972   </t>
   </si>
   <si>
     <t>chr11_72361970</t>
   </si>
   <si>
-    <t>PDE2A:RP11-31L22.3</t>
+    <t>LGALS1 intron_variant&amp;non_coding_transcript_variant:LGALS1 intron_variant&amp;NMD_transcript_variant:LGALS1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr22_38071731   </t>
   </si>
   <si>
     <t>chr11_94602309</t>
   </si>
   <si>
-    <t>AMOTL1</t>
+    <t>CACNA1E intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_181700483   </t>
   </si>
   <si>
     <t>chr12_27540087</t>
   </si>
   <si>
-    <t>ARNTL2</t>
+    <t>MAP2 intron_variant&amp;non_coding_transcript_variant:MAP2 intron_variant:MAP2 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:MAP2 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_210555437   </t>
   </si>
   <si>
     <t>chr12_27915585</t>
   </si>
   <si>
+    <t xml:space="preserve">chr3_14615401   </t>
+  </si>
+  <si>
     <t>chr12_39716416</t>
   </si>
   <si>
-    <t>KIF21A</t>
+    <t>CTBP1 intron_variant&amp;non_coding_transcript_variant:CTBP1 3_prime_UTR_variant:CTBP1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_1230728   </t>
   </si>
   <si>
     <t>chr12_43945218</t>
   </si>
   <si>
-    <t>ADAMTS20</t>
+    <t>NPSR1 intron_variant:NPSR1 intron_variant&amp;NMD_transcript_variant:NPSR1-AS1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_34724147   </t>
   </si>
   <si>
     <t>chr12_54108600</t>
   </si>
   <si>
-    <t>CALCOCO1</t>
+    <t xml:space="preserve">chr9_68429257   </t>
   </si>
   <si>
     <t>chr12_66275432</t>
   </si>
   <si>
-    <t>HMGA2:RP11-366L20.2</t>
+    <t>CCL13 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_32685125   </t>
   </si>
   <si>
     <t>chr12_89984601</t>
   </si>
   <si>
-    <t>ATP2B1:RP11-981P6.1</t>
+    <t xml:space="preserve">chr18_10637362   </t>
   </si>
   <si>
     <t>chr12_101761904</t>
   </si>
   <si>
-    <t>UTP20</t>
+    <t>DPP10 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_116535069   </t>
   </si>
   <si>
     <t>chr12_102046303</t>
   </si>
   <si>
-    <t>MYBPC1:RP11-755O11.2</t>
+    <t xml:space="preserve">chr16_71012646   </t>
   </si>
   <si>
     <t>chr12_111537985</t>
   </si>
   <si>
-    <t>CUX2</t>
+    <t>GRM8 intron_variant&amp;NMD_transcript_variant:GRM8 intron_variant:GRM8 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_126547339   </t>
   </si>
   <si>
     <t>chr12_112685781</t>
   </si>
   <si>
-    <t>HECTD4</t>
+    <t xml:space="preserve">chr11_71279725   </t>
   </si>
   <si>
     <t>chr12_133787794</t>
   </si>
   <si>
+    <t>UNC13C intron_variant&amp;non_coding_transcript_variant:UNC13C intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_54707019   </t>
+  </si>
+  <si>
     <t>chr13_23510618</t>
   </si>
   <si>
+    <t xml:space="preserve">chr1_248813126   </t>
+  </si>
+  <si>
     <t>chr13_76445400</t>
   </si>
   <si>
+    <t xml:space="preserve">chr12_133787794   </t>
+  </si>
+  <si>
     <t>chr14_64608530</t>
   </si>
   <si>
-    <t>SYNE2:ESR2</t>
+    <t>RP11-618I10.4 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_70172508   </t>
   </si>
   <si>
     <t>chr14_101005270</t>
   </si>
   <si>
-    <t>BEGAIN</t>
+    <t xml:space="preserve">chr7_51450034   </t>
   </si>
   <si>
     <t>chr14_107094736</t>
   </si>
   <si>
+    <t>STX8 intron_variant&amp;NMD_transcript_variant:STX8 intron_variant&amp;non_coding_transcript_variant:STX8 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_9282136   </t>
+  </si>
+  <si>
     <t>chr15_50882045</t>
   </si>
   <si>
-    <t>TRPM7</t>
+    <t>SYNE2 intron_variant&amp;NMD_transcript_variant:SYNE2 intron_variant:ESR2 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr14_64608530   </t>
   </si>
   <si>
     <t>chr15_54707019</t>
   </si>
   <si>
-    <t>UNC13C</t>
+    <t>TMEM150C missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_83406758   </t>
   </si>
   <si>
     <t>chr15_72968748</t>
   </si>
   <si>
-    <t>HIGD2B</t>
+    <t>THOC3 synonymous_variant:RP11-91H12.4 intron_variant&amp;non_coding_transcript_variant:THOC3 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_175353728   </t>
   </si>
   <si>
     <t>chr15_73492864</t>
   </si>
   <si>
-    <t>NEO1</t>
+    <t xml:space="preserve">chrX_24383620   </t>
   </si>
   <si>
     <t>chr15_75702783</t>
   </si>
   <si>
-    <t>SIN3A</t>
+    <t xml:space="preserve">chr6_1053960   </t>
   </si>
   <si>
     <t>chr16_33393407</t>
   </si>
   <si>
+    <t>SELT intron_variant:SELT intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_150336475   </t>
+  </si>
+  <si>
     <t>chr16_55735710</t>
   </si>
   <si>
-    <t>SLC6A2</t>
+    <t xml:space="preserve">chr6_7727522   </t>
   </si>
   <si>
     <t>chr16_69988463</t>
   </si>
   <si>
-    <t>CLEC18A</t>
+    <t xml:space="preserve">chr9_66457106   </t>
   </si>
   <si>
     <t>chr17_5126838</t>
   </si>
   <si>
-    <t>SCIMP:RP11-333E1.1</t>
+    <t xml:space="preserve">chr10_81993310   </t>
   </si>
   <si>
     <t>chr17_8812613</t>
   </si>
   <si>
-    <t>PIK3R5</t>
+    <t xml:space="preserve">chr14_106518256   </t>
   </si>
   <si>
     <t>chr17_9282136</t>
   </si>
   <si>
-    <t>STX8</t>
+    <t>BLM synonymous_variant&amp;NMD_transcript_variant:BLM intron_variant&amp;non_coding_transcript_variant:BLM intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_91303326   </t>
+  </si>
+  <si>
+    <t>BLM:BLM:BLM</t>
+  </si>
+  <si>
+    <t>synonymous_variant&amp;NMD_transcript_variant:intron_variant&amp;non_coding_transcript_variant:intron_variant</t>
   </si>
   <si>
     <t>chr17_12266574</t>
   </si>
   <si>
+    <t>CAMK2N1 3_prime_UTR_variant:CAMK2N1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_20809956   </t>
+  </si>
+  <si>
     <t>chr17_18445524</t>
   </si>
   <si>
-    <t>CTD-2303H24.2:CCDC144B</t>
+    <t>INPP4A intron_variant:INPP4A intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_99185276   </t>
   </si>
   <si>
     <t>chr17_30462698</t>
   </si>
   <si>
+    <t>LINC00969 intron_variant&amp;non_coding_transcript_variant:SDHAP2 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_195399268   </t>
+  </si>
+  <si>
     <t>chr17_33318204</t>
   </si>
   <si>
-    <t>LIG3</t>
+    <t>RP11-383H13.1 intron_variant:TRPA1 intron_variant:RP11-383H13.1 intron_variant&amp;non_coding_transcript_variant:RP11-383H13.1 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8_72936377   </t>
   </si>
   <si>
     <t>chr17_35879008</t>
   </si>
   <si>
-    <t>SYNRG</t>
+    <t>AKR1C1 intron_variant:AKR1C1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr10_5014345   </t>
   </si>
   <si>
     <t>chr17_38787296</t>
   </si>
   <si>
-    <t>SMARCE1:KRT222</t>
+    <t>NELL1 missense_variant:NELL1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_20805269   </t>
   </si>
   <si>
     <t>chr17_57685253</t>
   </si>
   <si>
-    <t>DHX40</t>
+    <t>CLEC18A missense_variant:CLEC18A intron_variant:CLEC18A non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16_69988463   </t>
   </si>
   <si>
     <t>chr17_58147228</t>
   </si>
   <si>
-    <t>HEATR6</t>
+    <t xml:space="preserve">chr17_39535268   </t>
   </si>
   <si>
     <t>chr18_14124235</t>
   </si>
   <si>
-    <t>ZNF519</t>
+    <t>ST3GAL3 intron_variant&amp;NMD_transcript_variant:ST3GAL3 intron_variant:ST3GAL3 intron_variant&amp;non_coding_transcript_variant:SHMT1P1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_44317262   </t>
   </si>
   <si>
     <t>chr19_326410</t>
   </si>
   <si>
+    <t xml:space="preserve">chr4_120072001   </t>
+  </si>
+  <si>
     <t>chr19_5719942</t>
   </si>
   <si>
-    <t>LONP1</t>
+    <t>ENPP3 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_132043246   </t>
   </si>
   <si>
     <t>chr19_6429547</t>
   </si>
   <si>
-    <t>SLC25A41</t>
+    <t xml:space="preserve">chr8_29886083   </t>
   </si>
   <si>
     <t>chr19_6429598</t>
   </si>
   <si>
+    <t>NKX6-3 intron_variant:NKX6-3 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8_41504753   </t>
+  </si>
+  <si>
     <t>chr19_6466368</t>
   </si>
   <si>
-    <t>CRB3</t>
+    <t>AGO2 intron_variant:AGO2 intron_variant&amp;non_coding_transcript_variant:AGO2 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8_141542261   </t>
   </si>
   <si>
     <t>chr19_7184651</t>
   </si>
   <si>
-    <t>INSR</t>
+    <t>SLC9A3P3 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:RP11-324H6.5 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr10_51785339   </t>
   </si>
   <si>
     <t>chr19_14507447</t>
   </si>
   <si>
-    <t>CD97</t>
+    <t>NEO1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_73492864   </t>
   </si>
   <si>
     <t>chr19_14507483</t>
   </si>
   <si>
+    <t xml:space="preserve">chr18_75031780   </t>
+  </si>
+  <si>
     <t>chr19_16628259</t>
   </si>
   <si>
-    <t>C19orf44:CTD-3222D19.2</t>
+    <t xml:space="preserve">chr21_37595431   </t>
   </si>
   <si>
     <t>chr19_18273702</t>
   </si>
   <si>
-    <t>PIK3R2</t>
+    <t>WASF4P non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrX_47664006   </t>
   </si>
   <si>
     <t>chr19_22868697</t>
   </si>
   <si>
-    <t>ZNF849P:CTC-457E21.9</t>
+    <t xml:space="preserve">chr1_40799145   </t>
   </si>
   <si>
     <t>chr19_51919263</t>
   </si>
   <si>
-    <t>SIGLEC10:CTD-2616J11.2</t>
+    <t>RABEPK intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_127975852   </t>
   </si>
   <si>
     <t>chr20_25304173</t>
   </si>
   <si>
-    <t>ABHD12</t>
+    <t>NEB intron_variant:NEB intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_152547485   </t>
   </si>
   <si>
     <t>chr20_29612944</t>
   </si>
   <si>
-    <t>FRG1B</t>
+    <t>KIAA1715 intron_variant&amp;NMD_transcript_variant:KIAA1715 intron_variant:KIAA1715 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_176804220   </t>
   </si>
   <si>
     <t>chr20_61455634</t>
   </si>
   <si>
-    <t>COL9A3</t>
+    <t>ATP2C1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_130651052   </t>
   </si>
   <si>
     <t>chr21_17236804</t>
   </si>
   <si>
-    <t>USP25</t>
+    <t>EMR2 5_prime_UTR_variant:EMR2 synonymous_variant:EMR2 synonymous_variant&amp;NMD_transcript_variant:EMR2 intron_variant:EMR2 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_14877845   </t>
   </si>
   <si>
     <t>chr21_37571740</t>
   </si>
   <si>
-    <t>DOPEY2</t>
+    <t>ABHD12 intron_variant:ABHD12 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr20_25304173   </t>
   </si>
   <si>
     <t>chr22_18310700</t>
   </si>
   <si>
-    <t>MICAL3</t>
+    <t>CEP120 intron_variant:CEP120 intron_variant&amp;NMD_transcript_variant:KRT8P33 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_122737791   </t>
   </si>
   <si>
     <t>chr22_38071731</t>
   </si>
   <si>
-    <t>LGALS1</t>
+    <t xml:space="preserve">chr6_169115251   </t>
   </si>
   <si>
     <t>chr22_38964456</t>
   </si>
   <si>
-    <t>DMC1</t>
+    <t xml:space="preserve">chr8_37555933   </t>
   </si>
   <si>
     <t>chrX_21544904</t>
   </si>
   <si>
-    <t>CNKSR2</t>
+    <t>DMKN intron_variant&amp;non_coding_transcript_variant:DMKN intron_variant&amp;NMD_transcript_variant:DMKN intron_variant:DMKN non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_35998892   </t>
   </si>
   <si>
     <t>chrX_23740681</t>
   </si>
   <si>
-    <t>ACOT9</t>
+    <t>CDK16 missense_variant:CDK16 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrX_47085720   </t>
   </si>
   <si>
     <t>chrX_24383620</t>
   </si>
   <si>
+    <t>AK2 3_prime_UTR_variant:RP1-117O3.2 intron_variant&amp;non_coding_transcript_variant:AK2 synonymous_variant:AK2 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:AK2 3_prime_UTR_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_33478872   </t>
+  </si>
+  <si>
     <t>chrX_49030776</t>
   </si>
   <si>
+    <t xml:space="preserve">chr10_127585097   </t>
+  </si>
+  <si>
     <t>chrX_54868436</t>
   </si>
   <si>
+    <t xml:space="preserve">chr15_75981945   </t>
+  </si>
+  <si>
     <t>chrX_71856303</t>
   </si>
   <si>
-    <t>PHKA1</t>
+    <t>LONP1 frameshift_variant:LONP1 missense_variant:LONP1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:LONP1 intron_variant:LONP1 splice_region_variant&amp;NMD_transcript_variant:LONP1 splice_donor_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_5719942   </t>
   </si>
 </sst>
 </file>
@@ -1248,13 +1758,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J163"/>
+  <dimension ref="A1:L163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1282,10 +1792,16 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1309,12 +1825,15 @@
         <v>0.37037037037037</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1338,12 +1857,15 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1367,12 +1889,15 @@
         <v>0.0563380281690141</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1396,12 +1921,21 @@
         <v>0.0746268656716418</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1425,12 +1959,15 @@
         <v>0.0588235294117647</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1454,12 +1991,15 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1483,12 +2023,15 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1512,12 +2055,15 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>34</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1541,12 +2087,21 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>37</v>
+      </c>
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1570,12 +2125,21 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>42</v>
+      </c>
+      <c r="J11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1599,12 +2163,15 @@
         <v>0.0208333333333333</v>
       </c>
       <c r="I12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>47</v>
+      </c>
+      <c r="J12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1628,12 +2195,15 @@
         <v>0.0434782608695652</v>
       </c>
       <c r="I13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>50</v>
+      </c>
+      <c r="J13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1657,12 +2227,15 @@
         <v>0.03125</v>
       </c>
       <c r="I14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>53</v>
+      </c>
+      <c r="J14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1686,12 +2259,21 @@
         <v>0.075</v>
       </c>
       <c r="I15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>56</v>
+      </c>
+      <c r="J15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1715,12 +2297,15 @@
         <v>0.0701754385964912</v>
       </c>
       <c r="I16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1744,12 +2329,15 @@
         <v>0.0952380952380952</v>
       </c>
       <c r="I17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1773,12 +2361,15 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="I18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1802,12 +2393,15 @@
         <v>0.0333333333333333</v>
       </c>
       <c r="I19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>70</v>
+      </c>
+      <c r="J19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1831,12 +2425,15 @@
         <v>0.181818181818182</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1860,12 +2457,15 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1889,12 +2489,15 @@
         <v>0.0222222222222222</v>
       </c>
       <c r="I22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1918,12 +2521,15 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1947,12 +2553,15 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1976,12 +2585,15 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2005,12 +2617,15 @@
         <v>0.04</v>
       </c>
       <c r="I26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>88</v>
+      </c>
+      <c r="J26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2034,12 +2649,15 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2063,12 +2681,15 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2092,12 +2713,15 @@
         <v>0.103448275862069</v>
       </c>
       <c r="I29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2121,12 +2745,15 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2150,12 +2777,15 @@
         <v>0.0384615384615385</v>
       </c>
       <c r="I31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2179,12 +2809,15 @@
         <v>0.142857142857143</v>
       </c>
       <c r="I32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2208,12 +2841,15 @@
         <v>0.0121951219512195</v>
       </c>
       <c r="I33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>108</v>
+      </c>
+      <c r="J33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2237,12 +2873,15 @@
         <v>0.276497695852535</v>
       </c>
       <c r="I34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>111</v>
+      </c>
+      <c r="J34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2266,12 +2905,15 @@
         <v>0.269230769230769</v>
       </c>
       <c r="I35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2295,12 +2937,15 @@
         <v>0.25</v>
       </c>
       <c r="I36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2324,12 +2969,15 @@
         <v>0.175</v>
       </c>
       <c r="I37" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J37" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2353,12 +3001,15 @@
         <v>0.109090909090909</v>
       </c>
       <c r="I38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>122</v>
+      </c>
+      <c r="J38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2382,12 +3033,15 @@
         <v>0.0952380952380952</v>
       </c>
       <c r="I39" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2411,12 +3065,15 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2440,12 +3097,15 @@
         <v>0.117647058823529</v>
       </c>
       <c r="I41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2469,12 +3129,15 @@
         <v>0.163636363636364</v>
       </c>
       <c r="I42" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2498,12 +3161,15 @@
         <v>0.05</v>
       </c>
       <c r="I43" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J43" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2527,12 +3193,15 @@
         <v>0.142857142857143</v>
       </c>
       <c r="I44" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J44" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2556,12 +3225,15 @@
         <v>0.0119047619047619</v>
       </c>
       <c r="I45" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2585,12 +3257,21 @@
         <v>0.109090909090909</v>
       </c>
       <c r="I46" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J46" t="s">
+        <v>145</v>
+      </c>
+      <c r="K46" t="s">
+        <v>146</v>
+      </c>
+      <c r="L46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2614,12 +3295,15 @@
         <v>0.05</v>
       </c>
       <c r="I47" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J47" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2643,12 +3327,15 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J48" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2672,12 +3359,15 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>154</v>
+      </c>
+      <c r="J49" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2701,12 +3391,15 @@
         <v>0.181818181818182</v>
       </c>
       <c r="I50" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>157</v>
+      </c>
+      <c r="J50" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2730,12 +3423,15 @@
         <v>0.25</v>
       </c>
       <c r="I51" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J51" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>99</v>
+        <v>162</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2759,12 +3455,15 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J52" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2788,12 +3487,15 @@
         <v>0.0666666666666667</v>
       </c>
       <c r="I53" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>165</v>
+      </c>
+      <c r="J53" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2817,12 +3519,21 @@
         <v>0.222222222222222</v>
       </c>
       <c r="I54" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="J54" t="s">
+        <v>169</v>
+      </c>
+      <c r="K54" t="s">
+        <v>170</v>
+      </c>
+      <c r="L54" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2846,12 +3557,15 @@
         <v>0.333333333333333</v>
       </c>
       <c r="I55" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>173</v>
+      </c>
+      <c r="J55" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2875,12 +3589,15 @@
         <v>0.225806451612903</v>
       </c>
       <c r="I56" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>176</v>
+      </c>
+      <c r="J56" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2904,12 +3621,15 @@
         <v>0.1875</v>
       </c>
       <c r="I57" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>179</v>
+      </c>
+      <c r="J57" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2933,12 +3653,15 @@
         <v>0.4</v>
       </c>
       <c r="I58" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J58" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2962,12 +3685,15 @@
         <v>0.032258064516129</v>
       </c>
       <c r="I59" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="J59" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2991,12 +3717,15 @@
         <v>0.0625</v>
       </c>
       <c r="I60" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>187</v>
+      </c>
+      <c r="J60" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>116</v>
+        <v>189</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3020,12 +3749,15 @@
         <v>0.0666666666666667</v>
       </c>
       <c r="I61" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>190</v>
+      </c>
+      <c r="J61" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -3049,12 +3781,15 @@
         <v>0.1</v>
       </c>
       <c r="I62" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J62" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3078,12 +3813,15 @@
         <v>0.214285714285714</v>
       </c>
       <c r="I63" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>195</v>
+      </c>
+      <c r="J63" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>122</v>
+        <v>197</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -3107,12 +3845,15 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="I64" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>198</v>
+      </c>
+      <c r="J64" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>124</v>
+        <v>200</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3136,12 +3877,15 @@
         <v>0.0909090909090909</v>
       </c>
       <c r="I65" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>201</v>
+      </c>
+      <c r="J65" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>126</v>
+        <v>203</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3165,12 +3909,15 @@
         <v>0.0425531914893617</v>
       </c>
       <c r="I66" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J66" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>128</v>
+        <v>205</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3194,12 +3941,15 @@
         <v>0.0425531914893617</v>
       </c>
       <c r="I67" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>206</v>
+      </c>
+      <c r="J67" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>129</v>
+        <v>208</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3223,12 +3973,15 @@
         <v>0.0422535211267606</v>
       </c>
       <c r="I68" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>209</v>
+      </c>
+      <c r="J68" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>131</v>
+        <v>211</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3252,12 +4005,15 @@
         <v>0.3125</v>
       </c>
       <c r="I69" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>212</v>
+      </c>
+      <c r="J69" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>133</v>
+        <v>214</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3281,12 +4037,15 @@
         <v>0.0196078431372549</v>
       </c>
       <c r="I70" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>215</v>
+      </c>
+      <c r="J70" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>134</v>
+        <v>217</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3310,12 +4069,21 @@
         <v>0.157894736842105</v>
       </c>
       <c r="I71" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>218</v>
+      </c>
+      <c r="J71" t="s">
+        <v>219</v>
+      </c>
+      <c r="K71" t="s">
+        <v>220</v>
+      </c>
+      <c r="L71" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>136</v>
+        <v>222</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3339,12 +4107,15 @@
         <v>0.235294117647059</v>
       </c>
       <c r="I72" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>223</v>
+      </c>
+      <c r="J72" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>138</v>
+        <v>225</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3368,12 +4139,15 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J73" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>140</v>
+        <v>227</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3397,12 +4171,15 @@
         <v>0.0434782608695652</v>
       </c>
       <c r="I74" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J74" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>142</v>
+        <v>229</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3426,12 +4203,15 @@
         <v>0.193548387096774</v>
       </c>
       <c r="I75" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>230</v>
+      </c>
+      <c r="J75" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>144</v>
+        <v>232</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3455,12 +4235,15 @@
         <v>0.0909090909090909</v>
       </c>
       <c r="I76" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>233</v>
+      </c>
+      <c r="J76" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>145</v>
+        <v>235</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3484,12 +4267,15 @@
         <v>0.105263157894737</v>
       </c>
       <c r="I77" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>236</v>
+      </c>
+      <c r="J77" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>147</v>
+        <v>238</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3513,12 +4299,15 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>239</v>
+      </c>
+      <c r="J78" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" t="s">
-        <v>149</v>
+        <v>241</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3542,12 +4331,15 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>242</v>
+      </c>
+      <c r="J79" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>150</v>
+        <v>244</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3571,12 +4363,15 @@
         <v>0.0714285714285714</v>
       </c>
       <c r="I80" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>245</v>
+      </c>
+      <c r="J80" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" t="s">
-        <v>152</v>
+        <v>247</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3600,12 +4395,15 @@
         <v>0.148148148148148</v>
       </c>
       <c r="I81" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>248</v>
+      </c>
+      <c r="J81" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" t="s">
-        <v>154</v>
+        <v>250</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -3629,12 +4427,15 @@
         <v>0.333333333333333</v>
       </c>
       <c r="I82" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>251</v>
+      </c>
+      <c r="J82" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" t="s">
-        <v>156</v>
+        <v>253</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -3658,12 +4459,15 @@
         <v>0.0769230769230769</v>
       </c>
       <c r="I83" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J83" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" t="s">
-        <v>157</v>
+        <v>255</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -3687,12 +4491,15 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>256</v>
+      </c>
+      <c r="J84" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" t="s">
-        <v>159</v>
+        <v>258</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -3716,12 +4523,21 @@
         <v>0.173913043478261</v>
       </c>
       <c r="I85" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>259</v>
+      </c>
+      <c r="J85" t="s">
+        <v>260</v>
+      </c>
+      <c r="K85" t="s">
+        <v>261</v>
+      </c>
+      <c r="L85" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" t="s">
-        <v>161</v>
+        <v>263</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -3745,12 +4561,15 @@
         <v>0.266666666666667</v>
       </c>
       <c r="I86" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J86" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" t="s">
-        <v>163</v>
+        <v>265</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -3774,12 +4593,15 @@
         <v>0.136986301369863</v>
       </c>
       <c r="I87" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>266</v>
+      </c>
+      <c r="J87" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" t="s">
-        <v>165</v>
+        <v>268</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -3803,12 +4625,15 @@
         <v>0.0666666666666667</v>
       </c>
       <c r="I88" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>269</v>
+      </c>
+      <c r="J88" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" t="s">
-        <v>167</v>
+        <v>271</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -3832,12 +4657,15 @@
         <v>0.0192307692307692</v>
       </c>
       <c r="I89" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J89" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" t="s">
-        <v>169</v>
+        <v>273</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -3861,12 +4689,15 @@
         <v>0.107142857142857</v>
       </c>
       <c r="I90" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J90" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" t="s">
-        <v>171</v>
+        <v>275</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -3890,12 +4721,21 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="I91" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>276</v>
+      </c>
+      <c r="J91" t="s">
+        <v>277</v>
+      </c>
+      <c r="K91" t="s">
+        <v>278</v>
+      </c>
+      <c r="L91" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" t="s">
-        <v>173</v>
+        <v>280</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -3919,12 +4759,15 @@
         <v>0.12</v>
       </c>
       <c r="I92" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>281</v>
+      </c>
+      <c r="J92" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" t="s">
-        <v>175</v>
+        <v>283</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -3948,12 +4791,15 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>284</v>
+      </c>
+      <c r="J93" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" t="s">
-        <v>177</v>
+        <v>286</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -3977,12 +4823,15 @@
         <v>0.285714285714286</v>
       </c>
       <c r="I94" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J94" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" t="s">
-        <v>179</v>
+        <v>288</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4006,12 +4855,15 @@
         <v>0.0357142857142857</v>
       </c>
       <c r="I95" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J95" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" t="s">
-        <v>180</v>
+        <v>290</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4035,12 +4887,15 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>291</v>
+      </c>
+      <c r="J96" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
-        <v>181</v>
+        <v>293</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -4064,12 +4919,15 @@
         <v>0.16</v>
       </c>
       <c r="I97" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>294</v>
+      </c>
+      <c r="J97" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>183</v>
+        <v>296</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -4093,12 +4951,15 @@
         <v>0.025</v>
       </c>
       <c r="I98" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>294</v>
+      </c>
+      <c r="J98" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
-        <v>185</v>
+        <v>298</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4122,12 +4983,15 @@
         <v>0.257142857142857</v>
       </c>
       <c r="I99" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>299</v>
+      </c>
+      <c r="J99" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>187</v>
+        <v>301</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -4151,12 +5015,15 @@
         <v>0.1</v>
       </c>
       <c r="I100" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>302</v>
+      </c>
+      <c r="J100" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>189</v>
+        <v>304</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4180,12 +5047,15 @@
         <v>0.0645161290322581</v>
       </c>
       <c r="I101" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>305</v>
+      </c>
+      <c r="J101" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>191</v>
+        <v>307</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -4209,12 +5079,15 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="I102" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J102" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
-        <v>192</v>
+        <v>309</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -4238,12 +5111,15 @@
         <v>0.0487804878048781</v>
       </c>
       <c r="I103" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>310</v>
+      </c>
+      <c r="J103" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>194</v>
+        <v>312</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -4267,12 +5143,15 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>313</v>
+      </c>
+      <c r="J104" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>196</v>
+        <v>315</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -4296,12 +5175,15 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J105" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" t="s">
-        <v>198</v>
+        <v>317</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -4325,12 +5207,15 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>318</v>
+      </c>
+      <c r="J106" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" t="s">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -4354,12 +5239,15 @@
         <v>0.238095238095238</v>
       </c>
       <c r="I107" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J107" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>202</v>
+        <v>322</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -4383,12 +5271,15 @@
         <v>0.0303030303030303</v>
       </c>
       <c r="I108" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>323</v>
+      </c>
+      <c r="J108" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>204</v>
+        <v>325</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -4412,12 +5303,15 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J109" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>206</v>
+        <v>327</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -4441,12 +5335,15 @@
         <v>0.125</v>
       </c>
       <c r="I110" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>328</v>
+      </c>
+      <c r="J110" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" t="s">
-        <v>208</v>
+        <v>330</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -4470,12 +5367,15 @@
         <v>0.125</v>
       </c>
       <c r="I111" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J111" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" t="s">
-        <v>210</v>
+        <v>332</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -4499,12 +5399,15 @@
         <v>0.08</v>
       </c>
       <c r="I112" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>333</v>
+      </c>
+      <c r="J112" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113" t="s">
-        <v>211</v>
+        <v>335</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -4528,12 +5431,15 @@
         <v>0.025</v>
       </c>
       <c r="I113" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J113" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114" t="s">
-        <v>212</v>
+        <v>337</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -4557,12 +5463,15 @@
         <v>0.0161290322580645</v>
       </c>
       <c r="I114" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J114" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115" t="s">
-        <v>213</v>
+        <v>339</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -4586,12 +5495,15 @@
         <v>0.25</v>
       </c>
       <c r="I115" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>340</v>
+      </c>
+      <c r="J115" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116" t="s">
-        <v>215</v>
+        <v>342</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -4615,12 +5527,15 @@
         <v>0.0147058823529412</v>
       </c>
       <c r="I116" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J116" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117" t="s">
-        <v>217</v>
+        <v>344</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -4644,12 +5559,15 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>345</v>
+      </c>
+      <c r="J117" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118" t="s">
-        <v>218</v>
+        <v>347</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -4673,12 +5591,15 @@
         <v>0.142857142857143</v>
       </c>
       <c r="I118" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>348</v>
+      </c>
+      <c r="J118" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" t="s">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -4702,12 +5623,15 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>351</v>
+      </c>
+      <c r="J119" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120" t="s">
-        <v>222</v>
+        <v>353</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -4731,12 +5655,15 @@
         <v>0.196078431372549</v>
       </c>
       <c r="I120" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>354</v>
+      </c>
+      <c r="J120" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121" t="s">
-        <v>224</v>
+        <v>356</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -4760,12 +5687,15 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J121" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122" t="s">
-        <v>226</v>
+        <v>358</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -4789,12 +5719,15 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J122" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123" t="s">
-        <v>228</v>
+        <v>360</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -4818,12 +5751,15 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="J123" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124" t="s">
-        <v>229</v>
+        <v>363</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -4847,12 +5783,15 @@
         <v>0.170731707317073</v>
       </c>
       <c r="I124" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J124" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125" t="s">
-        <v>231</v>
+        <v>365</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -4876,12 +5815,15 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J125" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126" t="s">
-        <v>233</v>
+        <v>367</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -4905,12 +5847,15 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J126" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127" t="s">
-        <v>235</v>
+        <v>369</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -4934,12 +5879,15 @@
         <v>0.176470588235294</v>
       </c>
       <c r="I127" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J127" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128" t="s">
-        <v>237</v>
+        <v>371</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -4963,12 +5911,21 @@
         <v>0.15</v>
       </c>
       <c r="I128" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>372</v>
+      </c>
+      <c r="J128" t="s">
+        <v>373</v>
+      </c>
+      <c r="K128" t="s">
+        <v>374</v>
+      </c>
+      <c r="L128" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>239</v>
+        <v>376</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -4992,12 +5949,15 @@
         <v>0.12</v>
       </c>
       <c r="I129" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>377</v>
+      </c>
+      <c r="J129" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>240</v>
+        <v>379</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -5021,12 +5981,15 @@
         <v>0.114285714285714</v>
       </c>
       <c r="I130" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>380</v>
+      </c>
+      <c r="J130" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>242</v>
+        <v>382</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -5050,12 +6013,15 @@
         <v>0.2</v>
       </c>
       <c r="I131" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>383</v>
+      </c>
+      <c r="J131" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" t="s">
-        <v>243</v>
+        <v>385</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -5079,12 +6045,15 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="I132" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>386</v>
+      </c>
+      <c r="J132" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" t="s">
-        <v>245</v>
+        <v>388</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -5108,12 +6077,15 @@
         <v>0.04</v>
       </c>
       <c r="I133" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>389</v>
+      </c>
+      <c r="J133" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" t="s">
-        <v>247</v>
+        <v>391</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -5137,12 +6109,15 @@
         <v>0.125</v>
       </c>
       <c r="I134" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>392</v>
+      </c>
+      <c r="J134" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" t="s">
-        <v>249</v>
+        <v>394</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -5166,12 +6141,15 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>395</v>
+      </c>
+      <c r="J135" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" t="s">
-        <v>251</v>
+        <v>397</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -5195,12 +6173,15 @@
         <v>0.0158730158730159</v>
       </c>
       <c r="I136" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J136" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" t="s">
-        <v>253</v>
+        <v>399</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -5224,12 +6205,15 @@
         <v>0.08</v>
       </c>
       <c r="I137" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>400</v>
+      </c>
+      <c r="J137" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" t="s">
-        <v>255</v>
+        <v>402</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -5253,12 +6237,15 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J138" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" t="s">
-        <v>256</v>
+        <v>404</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -5282,12 +6269,15 @@
         <v>0.027027027027027</v>
       </c>
       <c r="I139" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>405</v>
+      </c>
+      <c r="J139" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" t="s">
-        <v>258</v>
+        <v>407</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -5311,12 +6301,15 @@
         <v>0.0952380952380952</v>
       </c>
       <c r="I140" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J140" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" t="s">
-        <v>260</v>
+        <v>409</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -5340,12 +6333,15 @@
         <v>0.0344827586206897</v>
       </c>
       <c r="I141" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>410</v>
+      </c>
+      <c r="J141" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" t="s">
-        <v>261</v>
+        <v>412</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -5369,12 +6365,15 @@
         <v>0.133333333333333</v>
       </c>
       <c r="I142" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>413</v>
+      </c>
+      <c r="J142" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" t="s">
-        <v>263</v>
+        <v>415</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -5398,12 +6397,15 @@
         <v>0.142857142857143</v>
       </c>
       <c r="I143" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>416</v>
+      </c>
+      <c r="J143" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" t="s">
-        <v>265</v>
+        <v>418</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -5427,12 +6429,15 @@
         <v>0.111111111111111</v>
       </c>
       <c r="I144" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>419</v>
+      </c>
+      <c r="J144" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" t="s">
-        <v>267</v>
+        <v>421</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -5456,12 +6461,15 @@
         <v>0.05</v>
       </c>
       <c r="I145" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J145" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" t="s">
-        <v>268</v>
+        <v>423</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -5485,12 +6493,15 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J146" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" t="s">
-        <v>270</v>
+        <v>425</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -5514,12 +6525,15 @@
         <v>0.037037037037037</v>
       </c>
       <c r="I147" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>426</v>
+      </c>
+      <c r="J147" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" t="s">
-        <v>272</v>
+        <v>428</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -5543,12 +6557,15 @@
         <v>0.0208333333333333</v>
       </c>
       <c r="I148" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>294</v>
+      </c>
+      <c r="J148" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" t="s">
-        <v>274</v>
+        <v>430</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -5572,12 +6589,15 @@
         <v>0.214285714285714</v>
       </c>
       <c r="I149" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>431</v>
+      </c>
+      <c r="J149" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" t="s">
-        <v>276</v>
+        <v>433</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -5601,12 +6621,15 @@
         <v>0.0277777777777778</v>
       </c>
       <c r="I150" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>434</v>
+      </c>
+      <c r="J150" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" t="s">
-        <v>278</v>
+        <v>436</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -5630,12 +6653,15 @@
         <v>0.0357142857142857</v>
       </c>
       <c r="I151" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>437</v>
+      </c>
+      <c r="J151" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" t="s">
-        <v>280</v>
+        <v>439</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -5659,12 +6685,15 @@
         <v>0.238095238095238</v>
       </c>
       <c r="I152" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>440</v>
+      </c>
+      <c r="J152" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" t="s">
-        <v>282</v>
+        <v>442</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -5688,12 +6717,15 @@
         <v>0.12</v>
       </c>
       <c r="I153" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>443</v>
+      </c>
+      <c r="J153" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" t="s">
-        <v>284</v>
+        <v>445</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -5717,12 +6749,15 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>446</v>
+      </c>
+      <c r="J154" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" t="s">
-        <v>286</v>
+        <v>448</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -5746,12 +6781,15 @@
         <v>0.08</v>
       </c>
       <c r="I155" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>449</v>
+      </c>
+      <c r="J155" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" t="s">
-        <v>288</v>
+        <v>451</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -5775,12 +6813,15 @@
         <v>0.0526315789473684</v>
       </c>
       <c r="I156" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J156" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" t="s">
-        <v>290</v>
+        <v>453</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -5804,12 +6845,15 @@
         <v>0.0769230769230769</v>
       </c>
       <c r="I157" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J157" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" t="s">
-        <v>292</v>
+        <v>455</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -5833,12 +6877,15 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>456</v>
+      </c>
+      <c r="J158" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" t="s">
-        <v>294</v>
+        <v>458</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -5862,12 +6909,15 @@
         <v>0.181818181818182</v>
       </c>
       <c r="I159" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>459</v>
+      </c>
+      <c r="J159" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" t="s">
-        <v>296</v>
+        <v>461</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -5891,12 +6941,15 @@
         <v>0.04</v>
       </c>
       <c r="I160" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>462</v>
+      </c>
+      <c r="J160" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" t="s">
-        <v>297</v>
+        <v>464</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -5920,12 +6973,15 @@
         <v>0</v>
       </c>
       <c r="I161" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J161" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" t="s">
-        <v>298</v>
+        <v>466</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -5949,12 +7005,15 @@
         <v>0.0588235294117647</v>
       </c>
       <c r="I162" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J162" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" t="s">
-        <v>299</v>
+        <v>468</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -5978,7 +7037,10 @@
         <v>0.03125</v>
       </c>
       <c r="I163" t="s">
-        <v>300</v>
+        <v>469</v>
+      </c>
+      <c r="J163" t="s">
+        <v>470</v>
       </c>
     </row>
   </sheetData>
